--- a/results/mp/tinybert/corona/confidence/42/stop-words-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/42/stop-words-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="72">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,216 +40,186 @@
     <t>name</t>
   </si>
   <si>
-    <t>accused</t>
+    <t>killed</t>
   </si>
   <si>
     <t>arrested</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>chaos</t>
+    <t>died</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>crisis</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
     <t>warning</t>
   </si>
   <si>
-    <t>hell</t>
+    <t>panic</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>shortage</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
-    <t>proud</t>
-  </si>
-  <si>
-    <t>wow</t>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>interesting</t>
   </si>
   <si>
     <t>friend</t>
   </si>
   <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>interesting</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>positive</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>creative</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>free</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
     <t>support</t>
   </si>
   <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>positive</t>
+    <t>safety</t>
   </si>
   <si>
     <t>healthy</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>effective</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>dear</t>
   </si>
   <si>
     <t>credit</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>friends</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>care</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>worth</t>
+    <t>help</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>save</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>help</t>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>join</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
@@ -257,6 +227,9 @@
   </si>
   <si>
     <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
   </si>
 </sst>
 </file>
@@ -614,7 +587,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q54"/>
+  <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -622,10 +595,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J1" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -686,10 +659,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -704,16 +677,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="M3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -733,13 +706,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -751,19 +724,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="M4">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -783,13 +756,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -801,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="M5">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -833,37 +806,37 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.96</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="C6">
+        <v>17</v>
+      </c>
+      <c r="D6">
+        <v>17</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>9</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D6">
-        <v>24</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="K6">
-        <v>1</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L6">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="M6">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -875,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -883,13 +856,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.875</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D7">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -901,19 +874,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="K7">
-        <v>0.96875</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="L7">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="M7">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -933,13 +906,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8235294117647058</v>
+        <v>0.613013698630137</v>
       </c>
       <c r="C8">
-        <v>14</v>
+        <v>179</v>
       </c>
       <c r="D8">
-        <v>14</v>
+        <v>179</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -951,19 +924,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>113</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="K8">
-        <v>0.9583333333333334</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L8">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="M8">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -975,7 +948,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -983,13 +956,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7272727272727273</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D9">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1001,19 +974,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="K9">
-        <v>0.9444444444444444</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L9">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="M9">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1025,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1033,13 +1006,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7077922077922078</v>
+        <v>0.52</v>
       </c>
       <c r="C10">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="D10">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1051,19 +1024,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="K10">
-        <v>0.9</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L10">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="M10">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1075,7 +1048,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1083,13 +1056,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7</v>
+        <v>0.1976744186046512</v>
       </c>
       <c r="C11">
-        <v>7</v>
+        <v>102</v>
       </c>
       <c r="D11">
-        <v>7</v>
+        <v>102</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1101,19 +1074,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>414</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="K11">
-        <v>0.8888888888888888</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L11">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="M11">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1125,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1133,13 +1106,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6666666666666666</v>
+        <v>0.1733333333333333</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D12">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1151,19 +1124,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="K12">
-        <v>0.8888888888888888</v>
+        <v>0.875</v>
       </c>
       <c r="L12">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="M12">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1175,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1183,13 +1156,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6363636363636364</v>
+        <v>0.1693121693121693</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="D13">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1201,31 +1174,31 @@
         <v>0</v>
       </c>
       <c r="H13">
+        <v>157</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K13">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="L13">
+        <v>23</v>
+      </c>
+      <c r="M13">
+        <v>23</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>4</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K13">
-        <v>0.875</v>
-      </c>
-      <c r="L13">
-        <v>14</v>
-      </c>
-      <c r="M13">
-        <v>14</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1233,13 +1206,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3928571428571428</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C14">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D14">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1251,705 +1224,513 @@
         <v>0</v>
       </c>
       <c r="H14">
+        <v>238</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14">
+        <v>0.7931034482758621</v>
+      </c>
+      <c r="L14">
+        <v>46</v>
+      </c>
+      <c r="M14">
+        <v>46</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="J15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15">
+        <v>0.7926829268292683</v>
+      </c>
+      <c r="L15">
+        <v>65</v>
+      </c>
+      <c r="M15">
+        <v>65</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
         <v>17</v>
       </c>
-      <c r="J14" s="1" t="s">
+    </row>
+    <row r="16" spans="1:17">
+      <c r="J16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K16">
+        <v>0.7833333333333333</v>
+      </c>
+      <c r="L16">
+        <v>94</v>
+      </c>
+      <c r="M16">
+        <v>94</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="10:17">
+      <c r="J17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K17">
+        <v>0.78125</v>
+      </c>
+      <c r="L17">
+        <v>100</v>
+      </c>
+      <c r="M17">
+        <v>100</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="10:17">
+      <c r="J18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K18">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="L18">
+        <v>28</v>
+      </c>
+      <c r="M18">
+        <v>28</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="10:17">
+      <c r="J19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K19">
+        <v>0.75</v>
+      </c>
+      <c r="L19">
+        <v>21</v>
+      </c>
+      <c r="M19">
+        <v>21</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="10:17">
+      <c r="J20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K20">
+        <v>0.7323943661971831</v>
+      </c>
+      <c r="L20">
+        <v>104</v>
+      </c>
+      <c r="M20">
+        <v>104</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="10:17">
+      <c r="J21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K21">
+        <v>0.7222222222222222</v>
+      </c>
+      <c r="L21">
+        <v>26</v>
+      </c>
+      <c r="M21">
+        <v>26</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="10:17">
+      <c r="J22" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K14">
-        <v>0.8627450980392157</v>
-      </c>
-      <c r="L14">
+      <c r="K22">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="L22">
+        <v>17</v>
+      </c>
+      <c r="M22">
+        <v>17</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="10:17">
+      <c r="J23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K23">
+        <v>0.70625</v>
+      </c>
+      <c r="L23">
+        <v>113</v>
+      </c>
+      <c r="M23">
+        <v>113</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="10:17">
+      <c r="J24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K24">
+        <v>0.6956521739130435</v>
+      </c>
+      <c r="L24">
+        <v>16</v>
+      </c>
+      <c r="M24">
+        <v>16</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="10:17">
+      <c r="J25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K25">
+        <v>0.6886792452830188</v>
+      </c>
+      <c r="L25">
+        <v>73</v>
+      </c>
+      <c r="M25">
+        <v>73</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="10:17">
+      <c r="J26" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="M14">
-        <v>44</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="C15">
-        <v>7</v>
-      </c>
-      <c r="D15">
-        <v>7</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>14</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K15">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="L15">
+      <c r="K26">
+        <v>0.6862745098039216</v>
+      </c>
+      <c r="L26">
+        <v>35</v>
+      </c>
+      <c r="M26">
+        <v>35</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="10:17">
+      <c r="J27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="L27">
+        <v>18</v>
+      </c>
+      <c r="M27">
+        <v>18</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="10:17">
+      <c r="J28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K28">
+        <v>0.62</v>
+      </c>
+      <c r="L28">
+        <v>31</v>
+      </c>
+      <c r="M28">
+        <v>31</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17">
+      <c r="J29" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K29">
+        <v>0.6170212765957447</v>
+      </c>
+      <c r="L29">
+        <v>58</v>
+      </c>
+      <c r="M29">
+        <v>58</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="10:17">
+      <c r="J30" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="M15">
-        <v>48</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="1" t="s">
+      <c r="K30">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="L30">
+        <v>37</v>
+      </c>
+      <c r="M30">
+        <v>37</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="10:17">
+      <c r="J31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K31">
+        <v>0.5625</v>
+      </c>
+      <c r="L31">
+        <v>27</v>
+      </c>
+      <c r="M31">
+        <v>27</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
         <v>21</v>
       </c>
-      <c r="B16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="C16">
-        <v>9</v>
-      </c>
-      <c r="D16">
-        <v>9</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>18</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K16">
-        <v>0.8518518518518519</v>
-      </c>
-      <c r="L16">
-        <v>46</v>
-      </c>
-      <c r="M16">
-        <v>46</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="C17">
-        <v>8</v>
-      </c>
-      <c r="D17">
-        <v>8</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>16</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K17">
-        <v>0.8431372549019608</v>
-      </c>
-      <c r="L17">
-        <v>43</v>
-      </c>
-      <c r="M17">
-        <v>43</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>0.3175965665236051</v>
-      </c>
-      <c r="C18">
-        <v>74</v>
-      </c>
-      <c r="D18">
-        <v>74</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>159</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K18">
-        <v>0.8235294117647058</v>
-      </c>
-      <c r="L18">
-        <v>14</v>
-      </c>
-      <c r="M18">
-        <v>14</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>0.1842105263157895</v>
-      </c>
-      <c r="C19">
-        <v>7</v>
-      </c>
-      <c r="D19">
-        <v>7</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>31</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K19">
-        <v>0.8181818181818182</v>
-      </c>
-      <c r="L19">
-        <v>9</v>
-      </c>
-      <c r="M19">
-        <v>9</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>0.1744186046511628</v>
-      </c>
-      <c r="C20">
+    </row>
+    <row r="32" spans="10:17">
+      <c r="J32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K32">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="L32">
         <v>15</v>
       </c>
-      <c r="D20">
+      <c r="M32">
         <v>15</v>
       </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>71</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K20">
-        <v>0.8181818181818182</v>
-      </c>
-      <c r="L20">
-        <v>9</v>
-      </c>
-      <c r="M20">
-        <v>9</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21">
-        <v>0.1375</v>
-      </c>
-      <c r="C21">
-        <v>11</v>
-      </c>
-      <c r="D21">
-        <v>11</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>69</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K21">
-        <v>0.8148148148148148</v>
-      </c>
-      <c r="L21">
-        <v>22</v>
-      </c>
-      <c r="M21">
-        <v>22</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22">
-        <v>0.09090909090909091</v>
-      </c>
-      <c r="C22">
-        <v>10</v>
-      </c>
-      <c r="D22">
-        <v>10</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>100</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K22">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="L22">
-        <v>7</v>
-      </c>
-      <c r="M22">
-        <v>7</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="J23" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K23">
-        <v>0.7692307692307693</v>
-      </c>
-      <c r="L23">
-        <v>10</v>
-      </c>
-      <c r="M23">
-        <v>10</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="J24" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K24">
-        <v>0.75</v>
-      </c>
-      <c r="L24">
-        <v>9</v>
-      </c>
-      <c r="M24">
-        <v>9</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="J25" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K25">
-        <v>0.7413793103448276</v>
-      </c>
-      <c r="L25">
-        <v>43</v>
-      </c>
-      <c r="M25">
-        <v>43</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="J26" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K26">
-        <v>0.7307692307692307</v>
-      </c>
-      <c r="L26">
-        <v>19</v>
-      </c>
-      <c r="M26">
-        <v>19</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="J27" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K27">
-        <v>0.7241379310344828</v>
-      </c>
-      <c r="L27">
-        <v>21</v>
-      </c>
-      <c r="M27">
-        <v>21</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="J28" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K28">
-        <v>0.7</v>
-      </c>
-      <c r="L28">
-        <v>7</v>
-      </c>
-      <c r="M28">
-        <v>7</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="J29" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K29">
-        <v>0.6923076923076923</v>
-      </c>
-      <c r="L29">
-        <v>27</v>
-      </c>
-      <c r="M29">
-        <v>27</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="J30" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K30">
-        <v>0.6842105263157895</v>
-      </c>
-      <c r="L30">
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
         <v>13</v>
-      </c>
-      <c r="M30">
-        <v>13</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="J31" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K31">
-        <v>0.68</v>
-      </c>
-      <c r="L31">
-        <v>17</v>
-      </c>
-      <c r="M31">
-        <v>17</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="J32" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K32">
-        <v>0.6712328767123288</v>
-      </c>
-      <c r="L32">
-        <v>49</v>
-      </c>
-      <c r="M32">
-        <v>49</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>24</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="K33">
-        <v>0.64</v>
+        <v>0.5319148936170213</v>
       </c>
       <c r="L33">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="M33">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1961,21 +1742,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K34">
-        <v>0.625</v>
+        <v>0.5091383812010444</v>
       </c>
       <c r="L34">
-        <v>15</v>
+        <v>195</v>
       </c>
       <c r="M34">
-        <v>15</v>
+        <v>195</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1987,21 +1768,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>9</v>
+        <v>188</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="K35">
-        <v>0.6153846153846154</v>
+        <v>0.5</v>
       </c>
       <c r="L35">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="M35">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2013,21 +1794,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="K36">
-        <v>0.5882352941176471</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="L36">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="M36">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2039,21 +1820,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="K37">
-        <v>0.5833333333333334</v>
+        <v>0.4588235294117647</v>
       </c>
       <c r="L37">
-        <v>7</v>
+        <v>156</v>
       </c>
       <c r="M37">
-        <v>7</v>
+        <v>156</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2065,21 +1846,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>5</v>
+        <v>184</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="K38">
-        <v>0.5666666666666667</v>
+        <v>0.45</v>
       </c>
       <c r="L38">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M38">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2091,21 +1872,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="K39">
-        <v>0.55</v>
+        <v>0.449438202247191</v>
       </c>
       <c r="L39">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="M39">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2117,21 +1898,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>9</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="K40">
-        <v>0.5454545454545454</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="L40">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="M40">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2143,21 +1924,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="K41">
-        <v>0.5454545454545454</v>
+        <v>0.4135593220338983</v>
       </c>
       <c r="L41">
-        <v>18</v>
+        <v>122</v>
       </c>
       <c r="M41">
-        <v>18</v>
+        <v>122</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2169,21 +1950,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>15</v>
+        <v>173</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="K42">
-        <v>0.5357142857142857</v>
+        <v>0.3939393939393939</v>
       </c>
       <c r="L42">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M42">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2195,21 +1976,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="K43">
-        <v>0.5352112676056338</v>
+        <v>0.375</v>
       </c>
       <c r="L43">
-        <v>114</v>
+        <v>24</v>
       </c>
       <c r="M43">
-        <v>114</v>
+        <v>24</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2221,21 +2002,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>99</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="K44">
-        <v>0.5208333333333334</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="L44">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M44">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2247,21 +2028,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>69</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="K45">
-        <v>0.45</v>
+        <v>0.3561643835616438</v>
       </c>
       <c r="L45">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="M45">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2273,21 +2054,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>11</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="K46">
-        <v>0.4285714285714285</v>
+        <v>0.3538461538461539</v>
       </c>
       <c r="L46">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M46">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2299,21 +2080,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="K47">
-        <v>0.4263565891472868</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="L47">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="M47">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2325,21 +2106,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>74</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="K48">
-        <v>0.4239130434782609</v>
+        <v>0.3255813953488372</v>
       </c>
       <c r="L48">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="M48">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2351,21 +2132,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>53</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="K49">
-        <v>0.3513513513513514</v>
+        <v>0.2928870292887029</v>
       </c>
       <c r="L49">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="M49">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2377,21 +2158,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>24</v>
+        <v>169</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="K50">
-        <v>0.34375</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L50">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="M50">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2403,21 +2184,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>21</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="K51">
-        <v>0.2916666666666667</v>
+        <v>0.0145413870246085</v>
       </c>
       <c r="L51">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="M51">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2429,21 +2210,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>17</v>
+        <v>881</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K52">
-        <v>0.1842105263157895</v>
+        <v>0.006532897806812879</v>
       </c>
       <c r="L52">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="M52">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2455,59 +2236,33 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>31</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="K53">
-        <v>0.01707317073170732</v>
+        <v>0.006121134020618557</v>
       </c>
       <c r="L53">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="M53">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="N53">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="O53">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="P53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q53">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="54" spans="10:17">
-      <c r="J54" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K54">
-        <v>0.007123775601068566</v>
-      </c>
-      <c r="L54">
-        <v>8</v>
-      </c>
-      <c r="M54">
-        <v>8</v>
-      </c>
-      <c r="N54">
-        <v>1</v>
-      </c>
-      <c r="O54">
-        <v>0</v>
-      </c>
-      <c r="P54" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q54">
-        <v>1115</v>
+        <v>3085</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/42/stop-words-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/42/stop-words-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,58 +43,55 @@
     <t>killed</t>
   </si>
   <si>
+    <t>crude</t>
+  </si>
+  <si>
     <t>arrested</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
     <t>died</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>warning</t>
+    <t>war</t>
+  </si>
+  <si>
+    <t>emergency</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
-    <t>enjoy</t>
-  </si>
-  <si>
     <t>amazing</t>
   </si>
   <si>
     <t>beauty</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
     <t>strong</t>
   </si>
   <si>
-    <t>best</t>
+    <t>friend</t>
   </si>
   <si>
     <t>happy</t>
@@ -103,127 +100,121 @@
     <t>interesting</t>
   </si>
   <si>
-    <t>friend</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>nice</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>positive</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
     <t>friends</t>
   </si>
   <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
     <t>safe</t>
   </si>
   <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
     <t>support</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>healthy</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>credit</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>ready</t>
-  </si>
-  <si>
     <t>heroes</t>
   </si>
   <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>credit</t>
+    <t>care</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
     <t>important</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
-    <t>giving</t>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>save</t>
   </si>
   <si>
     <t>sure</t>
   </si>
   <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
+    <t>please</t>
+  </si>
+  <si>
     <t>join</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
     <t>store</t>
+  </si>
+  <si>
+    <t>grocery</t>
   </si>
   <si>
     <t>19</t>
@@ -587,7 +578,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q53"/>
+  <dimension ref="A1:Q51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -595,10 +586,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -677,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M3">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -706,37 +697,37 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8666666666666667</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C4">
+        <v>30</v>
+      </c>
+      <c r="D4">
+        <v>30</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
         <v>13</v>
       </c>
-      <c r="D4">
+      <c r="M4">
         <v>13</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>18</v>
-      </c>
-      <c r="M4">
-        <v>18</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -756,13 +747,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8235294117647058</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C5">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -774,19 +765,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L5">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M5">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -798,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -806,13 +797,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6538461538461539</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C6">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -824,19 +815,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K6">
-        <v>0.9565217391304348</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L6">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M6">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -848,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -856,13 +847,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6206896551724138</v>
+        <v>0.6267123287671232</v>
       </c>
       <c r="C7">
-        <v>18</v>
+        <v>183</v>
       </c>
       <c r="D7">
-        <v>18</v>
+        <v>183</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -874,19 +865,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K7">
-        <v>0.9545454545454546</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L7">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M7">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -898,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -906,13 +897,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.613013698630137</v>
+        <v>0.5862068965517241</v>
       </c>
       <c r="C8">
-        <v>179</v>
+        <v>17</v>
       </c>
       <c r="D8">
-        <v>179</v>
+        <v>17</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -924,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K8">
-        <v>0.9322033898305084</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L8">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="M8">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -948,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -956,13 +947,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5555555555555556</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="C9">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -974,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K9">
-        <v>0.9230769230769231</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L9">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M9">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -998,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1006,7 +997,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.52</v>
+        <v>0.3421052631578947</v>
       </c>
       <c r="C10">
         <v>13</v>
@@ -1024,19 +1015,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K10">
-        <v>0.9090909090909091</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="L10">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M10">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1048,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1056,13 +1047,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.1976744186046512</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="C11">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="D11">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1074,19 +1065,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>414</v>
+        <v>55</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K11">
-        <v>0.8947368421052632</v>
+        <v>0.875</v>
       </c>
       <c r="L11">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="M11">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1098,7 +1089,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1106,13 +1097,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.1733333333333333</v>
+        <v>0.186046511627907</v>
       </c>
       <c r="C12">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="D12">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1124,19 +1115,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>62</v>
+        <v>420</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K12">
-        <v>0.875</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L12">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="M12">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1148,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1156,13 +1147,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.1693121693121693</v>
+        <v>0.1587301587301587</v>
       </c>
       <c r="C13">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D13">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1174,69 +1165,45 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13">
+        <v>0.8148148148148148</v>
+      </c>
+      <c r="L13">
+        <v>22</v>
+      </c>
+      <c r="M13">
+        <v>22</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="J14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K13">
-        <v>0.8518518518518519</v>
-      </c>
-      <c r="L13">
-        <v>23</v>
-      </c>
-      <c r="M13">
-        <v>23</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>0.05555555555555555</v>
-      </c>
-      <c r="C14">
-        <v>14</v>
-      </c>
-      <c r="D14">
-        <v>14</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>238</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="K14">
-        <v>0.7931034482758621</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L14">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="M14">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1248,21 +1215,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K15">
-        <v>0.7926829268292683</v>
+        <v>0.796875</v>
       </c>
       <c r="L15">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="M15">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1274,12 +1241,12 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K16">
         <v>0.7833333333333333</v>
@@ -1305,16 +1272,16 @@
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K17">
-        <v>0.78125</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="L17">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="M17">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1326,21 +1293,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K18">
-        <v>0.7777777777777778</v>
+        <v>0.75</v>
       </c>
       <c r="L18">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="M18">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1352,21 +1319,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K19">
+        <v>0.7254901960784313</v>
+      </c>
+      <c r="L19">
         <v>37</v>
       </c>
-      <c r="K19">
-        <v>0.75</v>
-      </c>
-      <c r="L19">
-        <v>21</v>
-      </c>
       <c r="M19">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1378,21 +1345,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K20">
-        <v>0.7323943661971831</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L20">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="M20">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1404,21 +1371,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>38</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K21">
-        <v>0.7222222222222222</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="L21">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="M21">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1430,21 +1397,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>10</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K22">
-        <v>0.7083333333333334</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L22">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M22">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1456,21 +1423,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K23">
-        <v>0.70625</v>
+        <v>0.7</v>
       </c>
       <c r="L23">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M23">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1482,12 +1449,12 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K24">
         <v>0.6956521739130435</v>
@@ -1513,16 +1480,16 @@
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K25">
-        <v>0.6886792452830188</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="L25">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="M25">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1534,21 +1501,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K26">
-        <v>0.6862745098039216</v>
+        <v>0.6792452830188679</v>
       </c>
       <c r="L26">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="M26">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1560,21 +1527,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K27">
         <v>0.6666666666666666</v>
       </c>
       <c r="L27">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M27">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1586,21 +1553,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K28">
-        <v>0.62</v>
+        <v>0.6276595744680851</v>
       </c>
       <c r="L28">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="M28">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1612,21 +1579,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K29">
-        <v>0.6170212765957447</v>
+        <v>0.62</v>
       </c>
       <c r="L29">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="M29">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1638,21 +1605,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>36</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K30">
-        <v>0.5873015873015873</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L30">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="M30">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1664,21 +1631,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K31">
-        <v>0.5625</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L31">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M31">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1690,21 +1657,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K32">
-        <v>0.5357142857142857</v>
+        <v>0.5106382978723404</v>
       </c>
       <c r="L32">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="M32">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1716,21 +1683,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K33">
-        <v>0.5319148936170213</v>
+        <v>0.5</v>
       </c>
       <c r="L33">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M33">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1742,21 +1709,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K34">
-        <v>0.5091383812010444</v>
+        <v>0.5</v>
       </c>
       <c r="L34">
-        <v>195</v>
+        <v>14</v>
       </c>
       <c r="M34">
-        <v>195</v>
+        <v>14</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1768,21 +1735,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>188</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K35">
-        <v>0.5</v>
+        <v>0.4986945169712794</v>
       </c>
       <c r="L35">
-        <v>14</v>
+        <v>191</v>
       </c>
       <c r="M35">
-        <v>14</v>
+        <v>191</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1794,21 +1761,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>14</v>
+        <v>192</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K36">
-        <v>0.4705882352941176</v>
+        <v>0.4831460674157304</v>
       </c>
       <c r="L36">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="M36">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1820,21 +1787,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>18</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K37">
-        <v>0.4588235294117647</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="L37">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M37">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1846,21 +1813,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K38">
-        <v>0.45</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L38">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M38">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1872,21 +1839,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K39">
-        <v>0.449438202247191</v>
+        <v>0.4406779661016949</v>
       </c>
       <c r="L39">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="M39">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1898,21 +1865,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>49</v>
+        <v>165</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K40">
-        <v>0.4222222222222222</v>
+        <v>0.410958904109589</v>
       </c>
       <c r="L40">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M40">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1924,21 +1891,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K41">
-        <v>0.4135593220338983</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="L41">
-        <v>122</v>
+        <v>13</v>
       </c>
       <c r="M41">
-        <v>122</v>
+        <v>13</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1950,21 +1917,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>173</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K42">
-        <v>0.3939393939393939</v>
+        <v>0.34375</v>
       </c>
       <c r="L42">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M42">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1976,21 +1943,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K43">
-        <v>0.375</v>
+        <v>0.3230769230769231</v>
       </c>
       <c r="L43">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M43">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2002,21 +1969,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K44">
-        <v>0.3714285714285714</v>
+        <v>0.3205128205128205</v>
       </c>
       <c r="L44">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M44">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2028,21 +1995,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>22</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K45">
-        <v>0.3561643835616438</v>
+        <v>0.3054393305439331</v>
       </c>
       <c r="L45">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="M45">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2054,21 +2021,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>47</v>
+        <v>166</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K46">
-        <v>0.3538461538461539</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="L46">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M46">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2080,21 +2047,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K47">
-        <v>0.3461538461538461</v>
+        <v>0.2428571428571429</v>
       </c>
       <c r="L47">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="M47">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2106,21 +2073,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K48">
-        <v>0.3255813953488372</v>
+        <v>0.0145413870246085</v>
       </c>
       <c r="L48">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M48">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2132,21 +2099,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>29</v>
+        <v>881</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K49">
-        <v>0.2928870292887029</v>
+        <v>0.0144284128745838</v>
       </c>
       <c r="L49">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M49">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2158,21 +2125,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>169</v>
+        <v>888</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K50">
-        <v>0.2857142857142857</v>
+        <v>0.008866075594960336</v>
       </c>
       <c r="L50">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M50">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2184,85 +2151,33 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>50</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K51">
-        <v>0.0145413870246085</v>
+        <v>0.006443298969072165</v>
       </c>
       <c r="L51">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M51">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="N51">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="O51">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="P51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q51">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="52" spans="10:17">
-      <c r="J52" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K52">
-        <v>0.006532897806812879</v>
-      </c>
-      <c r="L52">
-        <v>14</v>
-      </c>
-      <c r="M52">
-        <v>14</v>
-      </c>
-      <c r="N52">
-        <v>1</v>
-      </c>
-      <c r="O52">
-        <v>0</v>
-      </c>
-      <c r="P52" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q52">
-        <v>2129</v>
-      </c>
-    </row>
-    <row r="53" spans="10:17">
-      <c r="J53" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K53">
-        <v>0.006121134020618557</v>
-      </c>
-      <c r="L53">
-        <v>19</v>
-      </c>
-      <c r="M53">
-        <v>22</v>
-      </c>
-      <c r="N53">
-        <v>0.86</v>
-      </c>
-      <c r="O53">
-        <v>0.14</v>
-      </c>
-      <c r="P53" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q53">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
   </sheetData>
